--- a/FILTROS IMAGENES/EXPERIMENTOS/RESULTADOS/COMPARACION_KERNELS/FILTRO5X5/kernels/resultados.xlsx
+++ b/FILTROS IMAGENES/EXPERIMENTOS/RESULTADOS/COMPARACION_KERNELS/FILTRO5X5/kernels/resultados.xlsx
@@ -20,19 +20,19 @@
     <t>kernel_filter_color</t>
   </si>
   <si>
+    <t>kernel_filter_color_local_ineficiente</t>
+  </si>
+  <si>
+    <t>kernel_filter_color_local_hebra_maestra</t>
+  </si>
+  <si>
+    <t>kernel_filter_color_local_organizado</t>
+  </si>
+  <si>
+    <t>kernel_filter_color_local_organizado_junto</t>
+  </si>
+  <si>
     <t>kernel_filter_color_rectangular</t>
-  </si>
-  <si>
-    <t>kernel_filter_color_local</t>
-  </si>
-  <si>
-    <t>kernel_filter_color_local2</t>
-  </si>
-  <si>
-    <t>kernel_filter_color_local3</t>
-  </si>
-  <si>
-    <t>kernel_filter_color_local4</t>
   </si>
   <si>
     <t>kernel_filter_color_local_rectangular</t>
@@ -464,25 +464,19 @@
         <v>8</v>
       </c>
       <c r="B2" s="1">
-        <v>6.176000000000001E-06</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1.0272E-05</v>
+        <v>7.168000000000001E-06</v>
       </c>
       <c r="D2" s="1">
-        <v>8.032E-06</v>
+        <v>1.5584E-05</v>
       </c>
       <c r="E2" s="1">
-        <v>1.4464E-05</v>
+        <v>7.168000000000001E-06</v>
       </c>
       <c r="F2" s="1">
-        <v>6.144000000000001E-06</v>
-      </c>
-      <c r="G2" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>7.008E-06</v>
       </c>
       <c r="H2" s="1">
-        <v>1.0336E-05</v>
+        <v>1.328E-05</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -490,25 +484,19 @@
         <v>9</v>
       </c>
       <c r="B3" s="1">
-        <v>8.896000000000001E-06</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1.024E-05</v>
+        <v>1.0016E-05</v>
       </c>
       <c r="D3" s="1">
-        <v>9.408E-06</v>
+        <v>1.7312E-05</v>
       </c>
       <c r="E3" s="1">
-        <v>1.536E-05</v>
+        <v>7.488E-06</v>
       </c>
       <c r="F3" s="1">
-        <v>7.168000000000001E-06</v>
-      </c>
-      <c r="G3" s="1">
-        <v>7.168000000000001E-06</v>
+        <v>7.328000000000001E-06</v>
       </c>
       <c r="H3" s="1">
-        <v>1.2288E-05</v>
+        <v>1.4112E-05</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -516,25 +504,19 @@
         <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>5.2224E-05</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3.798400000000001E-05</v>
+        <v>5.3248E-05</v>
       </c>
       <c r="D4" s="1">
-        <v>7.555200000000001E-05</v>
+        <v>0.000114752</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000114848</v>
+        <v>2.5824E-05</v>
       </c>
       <c r="F4" s="1">
-        <v>2.4576E-05</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2.56E-05</v>
+        <v>2.5824E-05</v>
       </c>
       <c r="H4" s="1">
-        <v>3.168E-05</v>
+        <v>3.4496E-05</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -542,25 +524,19 @@
         <v>11</v>
       </c>
       <c r="B5" s="1">
-        <v>3.968E-05</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3.8656E-05</v>
+        <v>4.0736E-05</v>
       </c>
       <c r="D5" s="1">
-        <v>6.3328E-05</v>
+        <v>0.00017008</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000170976</v>
+        <v>3.2704E-05</v>
       </c>
       <c r="F5" s="1">
-        <v>3.1744E-05</v>
-      </c>
-      <c r="G5" s="1">
-        <v>3.184E-05</v>
+        <v>3.2032E-05</v>
       </c>
       <c r="H5" s="1">
-        <v>3.708800000000001E-05</v>
+        <v>3.8912E-05</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -568,25 +544,19 @@
         <v>12</v>
       </c>
       <c r="B6" s="1">
-        <v>7.782400000000001E-05</v>
-      </c>
-      <c r="C6" s="1">
-        <v>6.5536E-05</v>
+        <v>7.987200000000001E-05</v>
       </c>
       <c r="D6" s="1">
-        <v>0.000113664</v>
+        <v>0.000319296</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000319648</v>
+        <v>5.5488E-05</v>
       </c>
       <c r="F6" s="1">
-        <v>5.5296E-05</v>
-      </c>
-      <c r="G6" s="1">
-        <v>5.510400000000001E-05</v>
+        <v>5.5232E-05</v>
       </c>
       <c r="H6" s="1">
-        <v>6.230400000000001E-05</v>
+        <v>6.3808E-05</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -594,25 +564,19 @@
         <v>13</v>
       </c>
       <c r="B7" s="1">
-        <v>0.000311296</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.000183008</v>
+        <v>0.00057856</v>
       </c>
       <c r="D7" s="1">
-        <v>0.000462592</v>
+        <v>0.0007096320000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0007127360000000001</v>
+        <v>0.00013312</v>
       </c>
       <c r="F7" s="1">
-        <v>0.00013312</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.000133248</v>
+        <v>0.000133408</v>
       </c>
       <c r="H7" s="1">
-        <v>0.000142336</v>
+        <v>0.000142112</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -620,25 +584,19 @@
         <v>14</v>
       </c>
       <c r="B8" s="1">
-        <v>0.0005867520000000001</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.0004543360000000001</v>
+        <v>0.000587776</v>
       </c>
       <c r="D8" s="1">
-        <v>0.000939936</v>
+        <v>0.002786304</v>
       </c>
       <c r="E8" s="1">
-        <v>0.002803968</v>
+        <v>0.00043424</v>
       </c>
       <c r="F8" s="1">
-        <v>0.000434112</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.000433856</v>
+        <v>0.000434016</v>
       </c>
       <c r="H8" s="1">
-        <v>0.000423936</v>
+        <v>0.0004248640000000001</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -646,25 +604,19 @@
         <v>15</v>
       </c>
       <c r="B9" s="1">
-        <v>0.00407552</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.002932384</v>
+        <v>0.004091904</v>
       </c>
       <c r="D9" s="1">
-        <v>0.007215072</v>
+        <v>0.016093952</v>
       </c>
       <c r="E9" s="1">
-        <v>0.016205824</v>
+        <v>0.004838624000000001</v>
       </c>
       <c r="F9" s="1">
-        <v>0.002625536</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.002626304</v>
+        <v>0.002626656</v>
       </c>
       <c r="H9" s="1">
-        <v>0.002684768</v>
+        <v>0.002683904</v>
       </c>
     </row>
   </sheetData>
@@ -714,25 +666,19 @@
         <v>8</v>
       </c>
       <c r="B2" s="1">
-        <v>6.176000000000001E-06</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1.0272E-05</v>
+        <v>7.168000000000001E-06</v>
       </c>
       <c r="D2" s="1">
-        <v>8.032E-06</v>
+        <v>1.5584E-05</v>
       </c>
       <c r="E2" s="1">
-        <v>1.4464E-05</v>
+        <v>7.168000000000001E-06</v>
       </c>
       <c r="F2" s="1">
-        <v>6.144000000000001E-06</v>
-      </c>
-      <c r="G2" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>7.008E-06</v>
       </c>
       <c r="H2" s="1">
-        <v>1.0336E-05</v>
+        <v>1.328E-05</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -740,25 +686,19 @@
         <v>9</v>
       </c>
       <c r="B3" s="1">
-        <v>8.896000000000001E-06</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1.024E-05</v>
+        <v>1.0016E-05</v>
       </c>
       <c r="D3" s="1">
-        <v>9.408E-06</v>
+        <v>1.7312E-05</v>
       </c>
       <c r="E3" s="1">
-        <v>1.536E-05</v>
+        <v>7.488E-06</v>
       </c>
       <c r="F3" s="1">
-        <v>7.168000000000001E-06</v>
-      </c>
-      <c r="G3" s="1">
-        <v>7.168000000000001E-06</v>
+        <v>7.328000000000001E-06</v>
       </c>
       <c r="H3" s="1">
-        <v>1.2288E-05</v>
+        <v>1.4112E-05</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -766,25 +706,19 @@
         <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>5.2224E-05</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3.798400000000001E-05</v>
+        <v>5.3248E-05</v>
       </c>
       <c r="D4" s="1">
-        <v>7.555200000000001E-05</v>
+        <v>0.000114752</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000114848</v>
+        <v>2.5824E-05</v>
       </c>
       <c r="F4" s="1">
-        <v>2.4576E-05</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2.56E-05</v>
+        <v>2.5824E-05</v>
       </c>
       <c r="H4" s="1">
-        <v>3.168E-05</v>
+        <v>3.4496E-05</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -792,25 +726,19 @@
         <v>11</v>
       </c>
       <c r="B5" s="1">
-        <v>3.968E-05</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3.8656E-05</v>
+        <v>4.0736E-05</v>
       </c>
       <c r="D5" s="1">
-        <v>6.3328E-05</v>
+        <v>0.00017008</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000170976</v>
+        <v>3.2704E-05</v>
       </c>
       <c r="F5" s="1">
-        <v>3.1744E-05</v>
-      </c>
-      <c r="G5" s="1">
-        <v>3.184E-05</v>
+        <v>3.2032E-05</v>
       </c>
       <c r="H5" s="1">
-        <v>3.708800000000001E-05</v>
+        <v>3.8912E-05</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -818,25 +746,19 @@
         <v>12</v>
       </c>
       <c r="B6" s="1">
-        <v>7.782400000000001E-05</v>
-      </c>
-      <c r="C6" s="1">
-        <v>6.5536E-05</v>
+        <v>7.987200000000001E-05</v>
       </c>
       <c r="D6" s="1">
-        <v>0.000113664</v>
+        <v>0.000319296</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000319648</v>
+        <v>5.5488E-05</v>
       </c>
       <c r="F6" s="1">
-        <v>5.5296E-05</v>
-      </c>
-      <c r="G6" s="1">
-        <v>5.510400000000001E-05</v>
+        <v>5.5232E-05</v>
       </c>
       <c r="H6" s="1">
-        <v>6.230400000000001E-05</v>
+        <v>6.3808E-05</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -844,25 +766,19 @@
         <v>13</v>
       </c>
       <c r="B7" s="1">
-        <v>0.000311296</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.000183008</v>
+        <v>0.00057856</v>
       </c>
       <c r="D7" s="1">
-        <v>0.000462592</v>
+        <v>0.0007096320000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0007127360000000001</v>
+        <v>0.00013312</v>
       </c>
       <c r="F7" s="1">
-        <v>0.00013312</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.000133248</v>
+        <v>0.000133408</v>
       </c>
       <c r="H7" s="1">
-        <v>0.000142336</v>
+        <v>0.000142112</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -870,25 +786,19 @@
         <v>14</v>
       </c>
       <c r="B8" s="1">
-        <v>0.0005867520000000001</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.0004543360000000001</v>
+        <v>0.000587776</v>
       </c>
       <c r="D8" s="1">
-        <v>0.000939936</v>
+        <v>0.002786304</v>
       </c>
       <c r="E8" s="1">
-        <v>0.002803968</v>
+        <v>0.00043424</v>
       </c>
       <c r="F8" s="1">
-        <v>0.000434112</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.000433856</v>
+        <v>0.000434016</v>
       </c>
       <c r="H8" s="1">
-        <v>0.000423936</v>
+        <v>0.0004248640000000001</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -896,25 +806,19 @@
         <v>15</v>
       </c>
       <c r="B9" s="1">
-        <v>0.00407552</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.002932384</v>
+        <v>0.004091904</v>
       </c>
       <c r="D9" s="1">
-        <v>0.007215072</v>
+        <v>0.016093952</v>
       </c>
       <c r="E9" s="1">
-        <v>0.016205824</v>
+        <v>0.004838624000000001</v>
       </c>
       <c r="F9" s="1">
-        <v>0.002625536</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.002626304</v>
+        <v>0.002626656</v>
       </c>
       <c r="H9" s="1">
-        <v>0.002684768</v>
+        <v>0.002683904</v>
       </c>
     </row>
   </sheetData>
